--- a/correlations/matrix-plots/results/correlations and p values.xlsx
+++ b/correlations/matrix-plots/results/correlations and p values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beccagould/Rqtl2-Glutathione-Genetics/correlations/matrix-plots/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57280921-D4B1-2B4A-A901-25E9980461D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DE9CBA-6A87-9A4C-8014-E4D2104030C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13660" yWindow="500" windowWidth="15120" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Correlations" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="333">
   <si>
     <t>InitialWeight</t>
   </si>
@@ -89,13 +89,946 @@
   </si>
   <si>
     <t>P-VALUES</t>
+  </si>
+  <si>
+    <t>Written out in table format</t>
+  </si>
+  <si>
+    <t>Initial Weight, Final Weight</t>
+  </si>
+  <si>
+    <t>Initial Weight, AST</t>
+  </si>
+  <si>
+    <t>Initial Weight, ALT</t>
+  </si>
+  <si>
+    <t>Initial Weight, AST/ALT</t>
+  </si>
+  <si>
+    <t>Initial Weight, BUN</t>
+  </si>
+  <si>
+    <t>Initial Weight, Glucose</t>
+  </si>
+  <si>
+    <t>Initial Weight, NADH</t>
+  </si>
+  <si>
+    <t>Initial Weight, NADP</t>
+  </si>
+  <si>
+    <t>Initial Weight, NADPH</t>
+  </si>
+  <si>
+    <t>Initial Weight, NADP/NADPH</t>
+  </si>
+  <si>
+    <t>Initial Weight, Liver Weight</t>
+  </si>
+  <si>
+    <t>Initial Weight, GSH</t>
+  </si>
+  <si>
+    <t>Initial Weight, GSSG</t>
+  </si>
+  <si>
+    <t>Initial Weight, Total GSH</t>
+  </si>
+  <si>
+    <t>Initial Weight, GSH/GSSG</t>
+  </si>
+  <si>
+    <t>Initial Weight, 2GSH/GSSG</t>
+  </si>
+  <si>
+    <t>Initial Weight, Eh (GSSG/2GSH)</t>
+  </si>
+  <si>
+    <t>Initial Weight, Steatosis</t>
+  </si>
+  <si>
+    <t>Initial Weight, Ballooning</t>
+  </si>
+  <si>
+    <t>Initial Weight, Fibrosis</t>
+  </si>
+  <si>
+    <t>Final Weight, AST</t>
+  </si>
+  <si>
+    <t>Final Weight, ALT</t>
+  </si>
+  <si>
+    <t>Final Weight, AST/ALT</t>
+  </si>
+  <si>
+    <t>Final Weight, BUN</t>
+  </si>
+  <si>
+    <t>Final Weight, Glucose</t>
+  </si>
+  <si>
+    <t>Final Weight, NADH</t>
+  </si>
+  <si>
+    <t>Final Weight, NADP</t>
+  </si>
+  <si>
+    <t>Final Weight, NADPH</t>
+  </si>
+  <si>
+    <t>Final Weight, NADP/NADPH</t>
+  </si>
+  <si>
+    <t>Final Weight, Liver Weight</t>
+  </si>
+  <si>
+    <t>Final Weight, GSH</t>
+  </si>
+  <si>
+    <t>Final Weight, GSSG</t>
+  </si>
+  <si>
+    <t>Final Weight, Total GSH</t>
+  </si>
+  <si>
+    <t>Final Weight, GSH/GSSG</t>
+  </si>
+  <si>
+    <t>Final Weight, 2GSH/GSSG</t>
+  </si>
+  <si>
+    <t>Final Weight, Eh (GSSG/2GSH)</t>
+  </si>
+  <si>
+    <t>Final Weight, Steatosis</t>
+  </si>
+  <si>
+    <t>Final Weight, Ballooning</t>
+  </si>
+  <si>
+    <t>Final Weight, Fibrosis</t>
+  </si>
+  <si>
+    <t>AST, ALT</t>
+  </si>
+  <si>
+    <t>AST, AST/ALT</t>
+  </si>
+  <si>
+    <t>AST, BUN</t>
+  </si>
+  <si>
+    <t>AST, Glucose</t>
+  </si>
+  <si>
+    <t>AST, NADH</t>
+  </si>
+  <si>
+    <t>AST, NADP</t>
+  </si>
+  <si>
+    <t>AST, NADPH</t>
+  </si>
+  <si>
+    <t>AST, NADP/NADPH</t>
+  </si>
+  <si>
+    <t>AST, Liver Weight</t>
+  </si>
+  <si>
+    <t>AST, GSH</t>
+  </si>
+  <si>
+    <t>AST, GSSG</t>
+  </si>
+  <si>
+    <t>AST, Total GSH</t>
+  </si>
+  <si>
+    <t>AST, GSH/GSSG</t>
+  </si>
+  <si>
+    <t>AST, 2GSH/GSSG</t>
+  </si>
+  <si>
+    <t>AST, Eh (GSSG/2GSH)</t>
+  </si>
+  <si>
+    <t>AST, Steatosis</t>
+  </si>
+  <si>
+    <t>AST, Ballooning</t>
+  </si>
+  <si>
+    <t>AST, Fibrosis</t>
+  </si>
+  <si>
+    <t>ALT, AST/ALT</t>
+  </si>
+  <si>
+    <t>ALT, BUN</t>
+  </si>
+  <si>
+    <t>ALT, Glucose</t>
+  </si>
+  <si>
+    <t>ALT, NADH</t>
+  </si>
+  <si>
+    <t>ALT, NADP</t>
+  </si>
+  <si>
+    <t>ALT, NADPH</t>
+  </si>
+  <si>
+    <t>ALT, NADP/NADPH</t>
+  </si>
+  <si>
+    <t>ALT, Liver Weight</t>
+  </si>
+  <si>
+    <t>ALT, GSH</t>
+  </si>
+  <si>
+    <t>ALT, GSSG</t>
+  </si>
+  <si>
+    <t>ALT, Total GSH</t>
+  </si>
+  <si>
+    <t>ALT, GSH/GSSG</t>
+  </si>
+  <si>
+    <t>ALT, 2GSH/GSSG</t>
+  </si>
+  <si>
+    <t>ALT, Eh (GSSG/2GSH)</t>
+  </si>
+  <si>
+    <t>ALT, Steatosis</t>
+  </si>
+  <si>
+    <t>ALT, Ballooning</t>
+  </si>
+  <si>
+    <t>ALT, Fibrosis</t>
+  </si>
+  <si>
+    <t>AST/ALT, BUN</t>
+  </si>
+  <si>
+    <t>AST/ALT, Glucose</t>
+  </si>
+  <si>
+    <t>AST/ALT, NADH</t>
+  </si>
+  <si>
+    <t>AST/ALT, NADP</t>
+  </si>
+  <si>
+    <t>AST/ALT, NADPH</t>
+  </si>
+  <si>
+    <t>AST/ALT, NADP/NADPH</t>
+  </si>
+  <si>
+    <t>AST/ALT, Liver Weight</t>
+  </si>
+  <si>
+    <t>AST/ALT, GSH</t>
+  </si>
+  <si>
+    <t>AST/ALT, GSSG</t>
+  </si>
+  <si>
+    <t>AST/ALT, Total GSH</t>
+  </si>
+  <si>
+    <t>AST/ALT, GSH/GSSG</t>
+  </si>
+  <si>
+    <t>AST/ALT, 2GSH/GSSG</t>
+  </si>
+  <si>
+    <t>AST/ALT, Eh (GSSG/2GSH)</t>
+  </si>
+  <si>
+    <t>AST/ALT, Steatosis</t>
+  </si>
+  <si>
+    <t>AST/ALT, Ballooning</t>
+  </si>
+  <si>
+    <t>AST/ALT, Fibrosis</t>
+  </si>
+  <si>
+    <t>BUN, Glucose</t>
+  </si>
+  <si>
+    <t>BUN, NADH</t>
+  </si>
+  <si>
+    <t>BUN, NADP</t>
+  </si>
+  <si>
+    <t>BUN, NADPH</t>
+  </si>
+  <si>
+    <t>BUN, NADP/NADPH</t>
+  </si>
+  <si>
+    <t>BUN, Liver Weight</t>
+  </si>
+  <si>
+    <t>BUN, GSH</t>
+  </si>
+  <si>
+    <t>BUN, GSSG</t>
+  </si>
+  <si>
+    <t>BUN, Total GSH</t>
+  </si>
+  <si>
+    <t>BUN, GSH/GSSG</t>
+  </si>
+  <si>
+    <t>BUN, 2GSH/GSSG</t>
+  </si>
+  <si>
+    <t>BUN, Eh (GSSG/2GSH)</t>
+  </si>
+  <si>
+    <t>BUN, Steatosis</t>
+  </si>
+  <si>
+    <t>BUN, Ballooning</t>
+  </si>
+  <si>
+    <t>BUN, Fibrosis</t>
+  </si>
+  <si>
+    <t>Glucose, NADH</t>
+  </si>
+  <si>
+    <t>Glucose, NADP</t>
+  </si>
+  <si>
+    <t>Glucose, NADPH</t>
+  </si>
+  <si>
+    <t>Glucose, NADP/NADPH</t>
+  </si>
+  <si>
+    <t>Glucose, Liver Weight</t>
+  </si>
+  <si>
+    <t>Glucose, GSH</t>
+  </si>
+  <si>
+    <t>Glucose, GSSG</t>
+  </si>
+  <si>
+    <t>Glucose, Total GSH</t>
+  </si>
+  <si>
+    <t>Glucose, GSH/GSSG</t>
+  </si>
+  <si>
+    <t>Glucose, 2GSH/GSSG</t>
+  </si>
+  <si>
+    <t>Glucose, Eh (GSSG/2GSH)</t>
+  </si>
+  <si>
+    <t>Glucose, Steatosis</t>
+  </si>
+  <si>
+    <t>Glucose, Ballooning</t>
+  </si>
+  <si>
+    <t>Glucose, Fibrosis</t>
+  </si>
+  <si>
+    <t>NADH, NADP</t>
+  </si>
+  <si>
+    <t>NADH, NADPH</t>
+  </si>
+  <si>
+    <t>NADH, NADP/NADPH</t>
+  </si>
+  <si>
+    <t>NADH, Liver Weight</t>
+  </si>
+  <si>
+    <t>NADH, GSH</t>
+  </si>
+  <si>
+    <t>NADH, GSSG</t>
+  </si>
+  <si>
+    <t>NADH, Total GSH</t>
+  </si>
+  <si>
+    <t>NADH, GSH/GSSG</t>
+  </si>
+  <si>
+    <t>NADH, 2GSH/GSSG</t>
+  </si>
+  <si>
+    <t>NADH, Eh (GSSG/2GSH)</t>
+  </si>
+  <si>
+    <t>NADH, Steatosis</t>
+  </si>
+  <si>
+    <t>NADH, Ballooning</t>
+  </si>
+  <si>
+    <t>NADH, Fibrosis</t>
+  </si>
+  <si>
+    <t>NADP, NADPH</t>
+  </si>
+  <si>
+    <t>NADP, NADP/NADPH</t>
+  </si>
+  <si>
+    <t>NADP, Liver Weight</t>
+  </si>
+  <si>
+    <t>NADP, GSH</t>
+  </si>
+  <si>
+    <t>NADP, GSSG</t>
+  </si>
+  <si>
+    <t>NADP, Total GSH</t>
+  </si>
+  <si>
+    <t>NADP, GSH/GSSG</t>
+  </si>
+  <si>
+    <t>NADP, 2GSH/GSSG</t>
+  </si>
+  <si>
+    <t>NADP, Eh (GSSG/2GSH)</t>
+  </si>
+  <si>
+    <t>NADP, Steatosis</t>
+  </si>
+  <si>
+    <t>NADP, Ballooning</t>
+  </si>
+  <si>
+    <t>NADP, Fibrosis</t>
+  </si>
+  <si>
+    <t>NADP/NADPH, Liver Weight</t>
+  </si>
+  <si>
+    <t>NADP/NADPH, GSH</t>
+  </si>
+  <si>
+    <t>NADP/NADPH, GSSG</t>
+  </si>
+  <si>
+    <t>NADP/NADPH, Total GSH</t>
+  </si>
+  <si>
+    <t>NADP/NADPH, GSH/GSSG</t>
+  </si>
+  <si>
+    <t>NADP/NADPH, 2GSH/GSSG</t>
+  </si>
+  <si>
+    <t>NADP/NADPH, Eh (GSSG/2GSH)</t>
+  </si>
+  <si>
+    <t>NADP/NADPH, Steatosis</t>
+  </si>
+  <si>
+    <t>NADP/NADPH, Ballooning</t>
+  </si>
+  <si>
+    <t>NADP/NADPH, Fibrosis</t>
+  </si>
+  <si>
+    <t>Liver Weight, GSH</t>
+  </si>
+  <si>
+    <t>Liver Weight, GSSG</t>
+  </si>
+  <si>
+    <t>Liver Weight, Total GSH</t>
+  </si>
+  <si>
+    <t>Liver Weight, GSH/GSSG</t>
+  </si>
+  <si>
+    <t>Liver Weight, 2GSH/GSSG</t>
+  </si>
+  <si>
+    <t>Liver Weight, Eh (GSSG/2GSH)</t>
+  </si>
+  <si>
+    <t>Liver Weight, Steatosis</t>
+  </si>
+  <si>
+    <t>Liver Weight, Ballooning</t>
+  </si>
+  <si>
+    <t>Liver Weight, Fibrosis</t>
+  </si>
+  <si>
+    <t>GSH, GSSG</t>
+  </si>
+  <si>
+    <t>GSH, Total GSH</t>
+  </si>
+  <si>
+    <t>GSH, GSH/GSSG</t>
+  </si>
+  <si>
+    <t>GSH, 2GSH/GSSG</t>
+  </si>
+  <si>
+    <t>GSH, Eh (GSSG/2GSH)</t>
+  </si>
+  <si>
+    <t>GSH, Steatosis</t>
+  </si>
+  <si>
+    <t>GSH, Ballooning</t>
+  </si>
+  <si>
+    <t>GSH, Fibrosis</t>
+  </si>
+  <si>
+    <t>GSSG, Total GSH</t>
+  </si>
+  <si>
+    <t>GSSG, GSH/GSSG</t>
+  </si>
+  <si>
+    <t>GSSG, 2GSH/GSSG</t>
+  </si>
+  <si>
+    <t>GSSG, Eh (GSSG/2GSH)</t>
+  </si>
+  <si>
+    <t>GSSG, Steatosis</t>
+  </si>
+  <si>
+    <t>GSSG, Ballooning</t>
+  </si>
+  <si>
+    <t>GSSG, Fibrosis</t>
+  </si>
+  <si>
+    <t>Total GSH, GSH/GSSG</t>
+  </si>
+  <si>
+    <t>Total GSH, 2GSH/GSSG</t>
+  </si>
+  <si>
+    <t>Total GSH, Eh (GSSG/2GSH)</t>
+  </si>
+  <si>
+    <t>Total GSH, Steatosis</t>
+  </si>
+  <si>
+    <t>Total GSH, Ballooning</t>
+  </si>
+  <si>
+    <t>Total GSH, Fibrosis</t>
+  </si>
+  <si>
+    <t>GSH/GSSG, 2GSH/GSSG</t>
+  </si>
+  <si>
+    <t>GSH/GSSG, Eh (GSSG/2GSH)</t>
+  </si>
+  <si>
+    <t>GSH/GSSG, Steatosis</t>
+  </si>
+  <si>
+    <t>GSH/GSSG, Ballooning</t>
+  </si>
+  <si>
+    <t>GSH/GSSG, Fibrosis</t>
+  </si>
+  <si>
+    <t>2GSH/GSSG, Eh (GSSG/2GSH)</t>
+  </si>
+  <si>
+    <t>2GSH/GSSG, Steatosis</t>
+  </si>
+  <si>
+    <t>2GSH/GSSG, Ballooning</t>
+  </si>
+  <si>
+    <t>2GSH/GSSG, Fibrosis</t>
+  </si>
+  <si>
+    <t>Eh (GSSG/2GSH), Steatosis</t>
+  </si>
+  <si>
+    <t>Eh (GSSG/2GSH), Ballooning</t>
+  </si>
+  <si>
+    <t>Eh (GSSG/2GSH), Fibrosis</t>
+  </si>
+  <si>
+    <t>Steatosis, Ballooning</t>
+  </si>
+  <si>
+    <t>Steatosis, Fibrosis</t>
+  </si>
+  <si>
+    <t>Ballooning, Fibrosis</t>
+  </si>
+  <si>
+    <t>Phenotypes</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>NADPH, NADP/NADPH</t>
+  </si>
+  <si>
+    <t>NADPH, Liver Weight</t>
+  </si>
+  <si>
+    <t>NADPH, GSH</t>
+  </si>
+  <si>
+    <t>NADPH, GSSG</t>
+  </si>
+  <si>
+    <t>NADPH, Total GSH</t>
+  </si>
+  <si>
+    <t>NADPH, GSH/GSSG</t>
+  </si>
+  <si>
+    <t>NADPH, 2GSH/GSSG</t>
+  </si>
+  <si>
+    <t>NADPH, Eh (GSSG/2GSH)</t>
+  </si>
+  <si>
+    <t>NADPH, Steatosis</t>
+  </si>
+  <si>
+    <t>NADPH, Ballooning</t>
+  </si>
+  <si>
+    <t>NADPH, Fibrosis</t>
+  </si>
+  <si>
+    <t>0.715*</t>
+  </si>
+  <si>
+    <t>-0.267*</t>
+  </si>
+  <si>
+    <t>0.179*</t>
+  </si>
+  <si>
+    <t>-0.394*</t>
+  </si>
+  <si>
+    <t>0.261*</t>
+  </si>
+  <si>
+    <t>-0.295*</t>
+  </si>
+  <si>
+    <t>0.335*</t>
+  </si>
+  <si>
+    <t>-0.424*</t>
+  </si>
+  <si>
+    <t>0.746*</t>
+  </si>
+  <si>
+    <t>0.061*</t>
+  </si>
+  <si>
+    <t>-0.251*</t>
+  </si>
+  <si>
+    <t>-0.399*</t>
+  </si>
+  <si>
+    <t>0.313*</t>
+  </si>
+  <si>
+    <t>0.195*</t>
+  </si>
+  <si>
+    <t>-0.205*</t>
+  </si>
+  <si>
+    <t>0.775*</t>
+  </si>
+  <si>
+    <t>0.050*</t>
+  </si>
+  <si>
+    <t>-0.170*</t>
+  </si>
+  <si>
+    <t>0.289*</t>
+  </si>
+  <si>
+    <t>0.273*</t>
+  </si>
+  <si>
+    <t>0.508*</t>
+  </si>
+  <si>
+    <t>0.533*</t>
+  </si>
+  <si>
+    <t>-0.164*</t>
+  </si>
+  <si>
+    <t>-0.161*</t>
+  </si>
+  <si>
+    <t>0.153*</t>
+  </si>
+  <si>
+    <t>0.048*</t>
+  </si>
+  <si>
+    <t>0.151*</t>
+  </si>
+  <si>
+    <t>-0.203*</t>
+  </si>
+  <si>
+    <t>-0.139*</t>
+  </si>
+  <si>
+    <t>-0.375*</t>
+  </si>
+  <si>
+    <t>0.152*</t>
+  </si>
+  <si>
+    <t>-0.089*</t>
+  </si>
+  <si>
+    <t>0.277*</t>
+  </si>
+  <si>
+    <t>0.091*</t>
+  </si>
+  <si>
+    <t>0.100*</t>
+  </si>
+  <si>
+    <t>0.092*</t>
+  </si>
+  <si>
+    <t>-0.065*</t>
+  </si>
+  <si>
+    <t>-0.148*</t>
+  </si>
+  <si>
+    <t>0.237*</t>
+  </si>
+  <si>
+    <t>-0.388*</t>
+  </si>
+  <si>
+    <t>0.150*</t>
+  </si>
+  <si>
+    <t>0.148*</t>
+  </si>
+  <si>
+    <t>-0.222*</t>
+  </si>
+  <si>
+    <t>-0.132*</t>
+  </si>
+  <si>
+    <t>-0.110*</t>
+  </si>
+  <si>
+    <t>0.157*</t>
+  </si>
+  <si>
+    <t>0.161*</t>
+  </si>
+  <si>
+    <t>0.160*</t>
+  </si>
+  <si>
+    <t>-0.182*</t>
+  </si>
+  <si>
+    <t>0.270*</t>
+  </si>
+  <si>
+    <t>-0.287*</t>
+  </si>
+  <si>
+    <t>0.280*</t>
+  </si>
+  <si>
+    <t>-0.225*</t>
+  </si>
+  <si>
+    <t>0.214*</t>
+  </si>
+  <si>
+    <t>-0.257*</t>
+  </si>
+  <si>
+    <t>0.355*</t>
+  </si>
+  <si>
+    <t>0.353*</t>
+  </si>
+  <si>
+    <t>0.185*</t>
+  </si>
+  <si>
+    <t>-0.356*</t>
+  </si>
+  <si>
+    <t>-0.298*</t>
+  </si>
+  <si>
+    <t>0.730*</t>
+  </si>
+  <si>
+    <t>-0.213*</t>
+  </si>
+  <si>
+    <t>-0.228*</t>
+  </si>
+  <si>
+    <t>0.191*</t>
+  </si>
+  <si>
+    <t>0.014*</t>
+  </si>
+  <si>
+    <t>-0.843*</t>
+  </si>
+  <si>
+    <t>0.284*</t>
+  </si>
+  <si>
+    <t>0.249*</t>
+  </si>
+  <si>
+    <t>0.194*</t>
+  </si>
+  <si>
+    <t>0.247*</t>
+  </si>
+  <si>
+    <t>-0.212*</t>
+  </si>
+  <si>
+    <t>-0.338*</t>
+  </si>
+  <si>
+    <t>-0.281*</t>
+  </si>
+  <si>
+    <t>-0.204*</t>
+  </si>
+  <si>
+    <t>-0.279*</t>
+  </si>
+  <si>
+    <t>0.242*</t>
+  </si>
+  <si>
+    <t>0.018*</t>
+  </si>
+  <si>
+    <t>0.099*</t>
+  </si>
+  <si>
+    <t>0.020*</t>
+  </si>
+  <si>
+    <t>0.240*</t>
+  </si>
+  <si>
+    <t>0.285*</t>
+  </si>
+  <si>
+    <t>0.748*</t>
+  </si>
+  <si>
+    <t>1.000*</t>
+  </si>
+  <si>
+    <t>0.274*</t>
+  </si>
+  <si>
+    <t>-0.827*</t>
+  </si>
+  <si>
+    <t>0.081*</t>
+  </si>
+  <si>
+    <t>-0.127*</t>
+  </si>
+  <si>
+    <t>0.759*</t>
+  </si>
+  <si>
+    <t>-0.379*</t>
+  </si>
+  <si>
+    <t>-0.292*</t>
+  </si>
+  <si>
+    <t>0.258*</t>
+  </si>
+  <si>
+    <t>-0.817*</t>
+  </si>
+  <si>
+    <t>-0.124*</t>
+  </si>
+  <si>
+    <t>-0.733*</t>
+  </si>
+  <si>
+    <t>-0.171*</t>
+  </si>
+  <si>
+    <t>0.136*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +1048,15 @@
       <b/>
       <sz val="14"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,12 +1082,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,13 +1428,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD47"/>
+  <dimension ref="A1:AD260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F273" sqref="F273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -566,67 +1513,67 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>0.71482203262126121</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>-0.26650501191428411</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>0.17909243144241069</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>-0.39417852751307159</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>1.0701353672280631E-2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>0.26062596019959289</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>-0.14300971995199199</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>-0.29546376360870857</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>0.33474538004758131</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>-0.42393656639029448</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="4">
         <v>0.74621614063424491</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="4">
         <v>-1.1616273993570479E-2</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="4">
         <v>6.135163589352207E-2</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="4">
         <v>-9.7102715063863022E-3</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="4">
         <v>-8.1441522402243893E-2</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="4">
         <v>-8.1441522402243893E-2</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="4">
         <v>7.0917713248888736E-2</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="4">
         <v>0.1197616221599087</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="4">
         <v>5.4438186978264892E-2</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="4">
         <v>-6.8381014159350759E-2</v>
       </c>
     </row>
@@ -634,67 +1581,67 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>0.71482203262126121</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>-0.25053833572930501</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>0.17922251952731799</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>-0.39905851072105653</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>4.594980504367726E-2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>0.31255943132748798</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>-0.1110420924270719</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>-5.3491660603148507E-2</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <v>0.19464277287588899</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>-0.20475729681343949</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="4">
         <v>0.77450210973162037</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="4">
         <v>-8.6102808628763711E-2</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="4">
         <v>4.975435308071384E-2</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="4">
         <v>-8.3185058260335981E-2</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="4">
         <v>-0.1702119081373028</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="4">
         <v>-0.1702119081373028</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="4">
         <v>0.15131175439325559</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="4">
         <v>0.28918732984880918</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="4">
         <v>0.27283641185423052</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="4">
         <v>-1.0596302180094219E-2</v>
       </c>
     </row>
@@ -702,67 +1649,67 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>-0.26650501191428411</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>-0.25053833572930501</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>0.50782621216615109</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>0.53315163401432375</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>6.1635129026794272E-2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>-0.16363645241973879</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>0.17635276032714289</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>-1.186457074825052E-4</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="4">
         <v>-5.1287168420969961E-2</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="4">
         <v>2.7545882442507781E-2</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="4">
         <v>-0.16052719685854189</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="4">
         <v>0.15318336621987411</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="4">
         <v>4.7553085883003048E-2</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="4">
         <v>0.15075208760825359</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="4">
         <v>0.158496775420675</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="4">
         <v>0.158496775420675</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="4">
         <v>-0.20270542201608471</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="4">
         <v>-4.6537043054287602E-2</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="4">
         <v>-0.1388222795480864</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="4">
         <v>1.6067712903499641E-2</v>
       </c>
     </row>
@@ -770,67 +1717,67 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>0.17909243144241069</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>0.17922251952731799</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>0.50782621216615109</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>-0.37511067863421249</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>0.15229139748415421</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>-1.1673647932890789E-2</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>-9.4574977676306782E-3</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>-8.9345107872652263E-2</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>6.7624386426195634E-3</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="4">
         <v>-6.73148278138999E-2</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="4">
         <v>0.27743913231480832</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="4">
         <v>9.1196691711281017E-2</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="4">
         <v>0.10029593610188919</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="4">
         <v>9.1733480951946653E-2</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="4">
         <v>-3.2829649931329112E-3</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="4">
         <v>-3.2829649931329112E-3</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="4">
         <v>-5.1679977938491627E-2</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="4">
         <v>0.11263748314870151</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="4">
         <v>-1.5635730389615899E-2</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="4">
         <v>1.392761009477732E-2</v>
       </c>
     </row>
@@ -838,67 +1785,67 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>-0.39417852751307159</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>-0.39905851072105653</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>0.53315163401432375</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>-0.37511067863421249</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>-6.5084820358172465E-2</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>-0.1482287565749037</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>0.23667620312439541</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>2.354953874589075E-2</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <v>-2.9255425768305719E-2</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="4">
         <v>3.6330193878938467E-2</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="4">
         <v>-0.38792064575136959</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="4">
         <v>0.15040112038362871</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="4">
         <v>2.960619942239285E-2</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="4">
         <v>0.14769109199546351</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="4">
         <v>0.17748385288240659</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="4">
         <v>0.17748385288240659</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="4">
         <v>-0.22158336262057729</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="4">
         <v>-0.13174377460900319</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="4">
         <v>-0.1099932215293314</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="4">
         <v>-1.473572737557706E-2</v>
       </c>
     </row>
@@ -906,67 +1853,67 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>1.0701353672280631E-2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>4.594980504367726E-2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>6.1635129026794272E-2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>0.15229139748415421</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>-6.5084820358172465E-2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>-6.8775553016392446E-2</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>0.15691473197157599</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>1.359216280351183E-2</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <v>7.1426840992058543E-3</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="4">
         <v>4.2498714418484802E-3</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="4">
         <v>3.060412812698228E-2</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="4">
         <v>0.161463631694094</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="4">
         <v>0.14200868849445719</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="4">
         <v>0.15958066972807591</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="4">
         <v>2.134071147081457E-2</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="4">
         <v>2.134071147081457E-2</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="4">
         <v>-0.1386058914773442</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="4">
         <v>6.7552589991092302E-2</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="4">
         <v>4.3212480202992169E-2</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="4">
         <v>-8.8028504219044099E-3</v>
       </c>
     </row>
@@ -974,67 +1921,67 @@
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>0.26062596019959289</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>0.31255943132748798</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>-0.16363645241973879</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>-1.1673647932890789E-2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>-0.1482287565749037</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>-6.8775553016392446E-2</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <v>-0.10950092337296539</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="4">
         <v>-0.1819415418947298</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="4">
         <v>0.26993171089409418</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="4">
         <v>-0.28691131589494279</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="4">
         <v>0.335010984931148</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="4">
         <v>-3.4207434485153659E-3</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="4">
         <v>9.7905069406959231E-3</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="4">
         <v>-3.1503101939170629E-3</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="4">
         <v>6.860464669283244E-4</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="4">
         <v>6.860464669283244E-4</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="4">
         <v>2.1696338127684841E-2</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="4">
         <v>6.124108305825892E-2</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="4">
         <v>0.27975066974880569</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="4">
         <v>7.5678653174138424E-2</v>
       </c>
     </row>
@@ -1042,67 +1989,67 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>-0.14300971995199199</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>-0.1110420924270719</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>0.17635276032714289</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>-9.4574977676306782E-3</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>0.23667620312439541</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>0.15691473197157599</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>-0.10950092337296539</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>-0.2248479604813719</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <v>0.21375432459069049</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="4">
         <v>-0.25699182611043592</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="4">
         <v>-0.15968812695244611</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="4">
         <v>0.35519693080995002</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="4">
         <v>0.21398612909720849</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="4">
         <v>0.35255720938237028</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="4">
         <v>0.18482556256051941</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="4">
         <v>0.18482556256051941</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="4">
         <v>-0.35558731548827849</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="4">
         <v>6.1648131281173517E-2</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="4">
         <v>4.9571906536717801E-2</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="4">
         <v>-8.8245403527145369E-2</v>
       </c>
     </row>
@@ -1110,67 +2057,67 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>-0.29546376360870857</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>-5.3491660603148507E-2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>-1.186457074825052E-4</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>-8.9345107872652263E-2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>2.354953874589075E-2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>1.359216280351183E-2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>-0.1819415418947298</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="4">
         <v>-0.2248479604813719</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="4">
         <v>1</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="4">
         <v>-0.29811937052010939</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="4">
         <v>0.73011609567919411</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="4">
         <v>-0.21259417849063381</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="4">
         <v>-0.22784055980309911</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="4">
         <v>-0.16147459955914201</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="4">
         <v>-0.22780593271314059</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="4">
         <v>-9.9820887820331494E-2</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="4">
         <v>-9.9820887820331494E-2</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="4">
         <v>0.19088776269291441</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="4">
         <v>0.101989408830286</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="4">
         <v>6.86446123095555E-2</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="4">
         <v>1.440404080408488E-2</v>
       </c>
     </row>
@@ -1178,67 +2125,67 @@
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>0.33474538004758131</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>0.19464277287588899</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>-5.1287168420969961E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>6.7624386426195634E-3</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>-2.9255425768305719E-2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>7.1426840992058543E-3</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>0.26993171089409418</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <v>0.21375432459069049</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="4">
         <v>-0.29811937052010939</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="4">
         <v>1</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="4">
         <v>-0.84329586386218991</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="4">
         <v>0.28377338013582137</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="4">
         <v>0.24915773649771861</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="4">
         <v>0.19393686693145221</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="4">
         <v>0.24741213719848701</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="4">
         <v>0.1086801585444173</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="4">
         <v>0.1086801585444173</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="4">
         <v>-0.21239626908164461</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="4">
         <v>-8.0147127093023199E-2</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="4">
         <v>0.17658862480929199</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="4">
         <v>-6.2418028288122603E-2</v>
       </c>
     </row>
@@ -1246,67 +2193,67 @@
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>-0.42393656639029448</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>-0.20475729681343949</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>2.7545882442507781E-2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>-6.73148278138999E-2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>3.6330193878938467E-2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <v>4.2498714418484802E-3</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
         <v>-0.28691131589494279</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="4">
         <v>-0.25699182611043592</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="4">
         <v>0.73011609567919411</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="4">
         <v>-0.84329586386218991</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="4">
         <v>1</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="4">
         <v>-0.33757405410747032</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="4">
         <v>-0.28075456447569619</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="4">
         <v>-0.20358782237276371</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="4">
         <v>-0.27912946836212332</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="4">
         <v>-0.1315355450641767</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="4">
         <v>-0.1315355450641767</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="4">
         <v>0.24240969593249609</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="4">
         <v>9.9573710558250733E-2</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="4">
         <v>-9.3846050498754149E-2</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="4">
         <v>5.8940477008841169E-2</v>
       </c>
     </row>
@@ -1314,67 +2261,67 @@
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>0.74621614063424491</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>0.77450210973162037</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>-0.16052719685854189</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>0.27743913231480832</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>-0.38792064575136959</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <v>3.060412812698228E-2</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <v>0.335010984931148</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <v>-0.15968812695244611</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="4">
         <v>-0.21259417849063381</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="4">
         <v>0.28377338013582137</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="4">
         <v>-0.33757405410747032</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="4">
         <v>1</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="4">
         <v>1.7541259076546249E-2</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="4">
         <v>9.9459312284540594E-2</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="4">
         <v>1.955105666192555E-2</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="4">
         <v>-0.1115995014656061</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="4">
         <v>-0.1115995014656061</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="4">
         <v>6.6127416044974574E-2</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="4">
         <v>0.24018819906209349</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="4">
         <v>0.28491776402537161</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="4">
         <v>-7.3013707362976521E-2</v>
       </c>
     </row>
@@ -1382,67 +2329,67 @@
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>-1.1616273993570479E-2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>-8.6102808628763711E-2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>0.15318336621987411</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>9.1196691711281017E-2</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>0.15040112038362871</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <v>0.161463631694094</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="4">
         <v>-3.4207434485153659E-3</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="4">
         <v>0.35519693080995002</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="4">
         <v>-0.22784055980309911</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="4">
         <v>0.24915773649771861</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="4">
         <v>-0.28075456447569619</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="4">
         <v>1.7541259076546249E-2</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="4">
         <v>1</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="4">
         <v>0.74842564136604628</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="4">
         <v>0.99967080672275288</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="4">
         <v>0.27377875934927881</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="4">
         <v>0.27377875934927881</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="4">
         <v>-0.82714886366654905</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="4">
         <v>-5.6043569622538604E-3</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="4">
         <v>8.1228656893096413E-2</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="4">
         <v>-0.12715242941317059</v>
       </c>
     </row>
@@ -1450,67 +2397,67 @@
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>6.135163589352207E-2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>4.975435308071384E-2</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>4.7553085883003048E-2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>0.10029593610188919</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>2.960619942239285E-2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="4">
         <v>0.14200868849445719</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <v>9.7905069406959231E-3</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="4">
         <v>0.21398612909720849</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="4">
         <v>-0.16147459955914201</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="4">
         <v>0.19393686693145221</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="4">
         <v>-0.20358782237276371</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="4">
         <v>9.9459312284540594E-2</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="4">
         <v>0.74842564136604628</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="4">
         <v>1</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="4">
         <v>0.75949595861023655</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="4">
         <v>-0.37927861265360041</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="4">
         <v>-0.37927861265360041</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="4">
         <v>-0.29187490514945441</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="4">
         <v>9.7656162977448793E-2</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="4">
         <v>0.1077125520118951</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="4">
         <v>-1.6722059340749409E-2</v>
       </c>
     </row>
@@ -1518,67 +2465,67 @@
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>-9.7102715063863022E-3</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>-8.3185058260335981E-2</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>0.15075208760825359</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>9.1733480951946653E-2</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>0.14769109199546351</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>0.15958066972807591</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <v>-3.1503101939170629E-3</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="4">
         <v>0.35255720938237028</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="4">
         <v>-0.22780593271314059</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="4">
         <v>0.24741213719848701</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="4">
         <v>-0.27912946836212332</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="4">
         <v>1.955105666192555E-2</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="4">
         <v>0.99967080672275288</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="4">
         <v>0.75949595861023655</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="4">
         <v>1</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="4">
         <v>0.25766346770490622</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="4">
         <v>0.25766346770490622</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="4">
         <v>-0.81689738656587851</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="4">
         <v>-2.891328403147144E-3</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="4">
         <v>8.2781477305348988E-2</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="4">
         <v>-0.12417229434879939</v>
       </c>
     </row>
@@ -1586,67 +2533,67 @@
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>-8.1441522402243893E-2</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>-0.1702119081373028</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>0.158496775420675</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>-3.2829649931329112E-3</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>0.17748385288240659</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="4">
         <v>2.134071147081457E-2</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="4">
         <v>6.860464669283244E-4</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="4">
         <v>0.18482556256051941</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="4">
         <v>-9.9820887820331494E-2</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="4">
         <v>0.1086801585444173</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="4">
         <v>-0.1315355450641767</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="4">
         <v>-0.1115995014656061</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="4">
         <v>0.27377875934927881</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="4">
         <v>-0.37927861265360041</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="4">
         <v>0.25766346770490622</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="4">
         <v>1</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="4">
         <v>1</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="4">
         <v>-0.73272541675679159</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="4">
         <v>-0.1706495719185937</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="4">
         <v>-3.911666421533886E-2</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="4">
         <v>-8.9735178049399067E-2</v>
       </c>
     </row>
@@ -1654,67 +2601,67 @@
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>-8.1441522402243893E-2</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>-0.1702119081373028</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>0.158496775420675</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>-3.2829649931329112E-3</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>0.17748385288240659</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="4">
         <v>2.134071147081457E-2</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>6.860464669283244E-4</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="4">
         <v>0.18482556256051941</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="4">
         <v>-9.9820887820331494E-2</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <v>0.1086801585444173</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="4">
         <v>-0.1315355450641767</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="4">
         <v>-0.1115995014656061</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="4">
         <v>0.27377875934927881</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="4">
         <v>-0.37927861265360041</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="4">
         <v>0.25766346770490622</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="4">
         <v>1</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="4">
         <v>1</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="4">
         <v>-0.73272541675679159</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="4">
         <v>-0.1706495719185937</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="4">
         <v>-3.911666421533886E-2</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="4">
         <v>-8.9735178049399067E-2</v>
       </c>
     </row>
@@ -1722,67 +2669,67 @@
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>7.0917713248888736E-2</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>0.15131175439325559</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>-0.20270542201608471</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>-5.1679977938491627E-2</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>-0.22158336262057729</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="4">
         <v>-0.1386058914773442</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="4">
         <v>2.1696338127684841E-2</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="4">
         <v>-0.35558731548827849</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="4">
         <v>0.19088776269291441</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="4">
         <v>-0.21239626908164461</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="4">
         <v>0.24240969593249609</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="4">
         <v>6.6127416044974574E-2</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="4">
         <v>-0.82714886366654905</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="4">
         <v>-0.29187490514945441</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="4">
         <v>-0.81689738656587851</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="4">
         <v>-0.73272541675679159</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="4">
         <v>-0.73272541675679159</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="4">
         <v>1</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="4">
         <v>8.937279682526561E-2</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="4">
         <v>-3.2610719364899558E-2</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="4">
         <v>0.128145807767961</v>
       </c>
     </row>
@@ -1790,67 +2737,67 @@
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>0.1197616221599087</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>0.28918732984880918</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>-4.6537043054287602E-2</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>0.11263748314870151</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>-0.13174377460900319</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>6.7552589991092302E-2</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>6.124108305825892E-2</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <v>6.1648131281173517E-2</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="4">
         <v>0.101989408830286</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="4">
         <v>-8.0147127093023199E-2</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="4">
         <v>9.9573710558250733E-2</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="4">
         <v>0.24018819906209349</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="4">
         <v>-5.6043569622538604E-3</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="4">
         <v>9.7656162977448793E-2</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="4">
         <v>-2.891328403147144E-3</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="4">
         <v>-0.1706495719185937</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="4">
         <v>-0.1706495719185937</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="4">
         <v>8.937279682526561E-2</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="4">
         <v>1</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="4">
         <v>0.13597198136645269</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="4">
         <v>3.2171458209979999E-2</v>
       </c>
     </row>
@@ -1858,67 +2805,67 @@
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>5.4438186978264892E-2</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>0.27283641185423052</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>-0.1388222795480864</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>-1.5635730389615899E-2</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>-0.1099932215293314</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="4">
         <v>4.3212480202992169E-2</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="4">
         <v>0.27975066974880569</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="4">
         <v>4.9571906536717801E-2</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="4">
         <v>6.86446123095555E-2</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="4">
         <v>0.17658862480929199</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="4">
         <v>-9.3846050498754149E-2</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="4">
         <v>0.28491776402537161</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="4">
         <v>8.1228656893096413E-2</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="4">
         <v>0.1077125520118951</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="4">
         <v>8.2781477305348988E-2</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="4">
         <v>-3.911666421533886E-2</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="4">
         <v>-3.911666421533886E-2</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="4">
         <v>-3.2610719364899558E-2</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="4">
         <v>0.13597198136645269</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="4">
         <v>1</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="4">
         <v>-5.5846895590400653E-2</v>
       </c>
     </row>
@@ -1926,67 +2873,67 @@
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>-6.8381014159350759E-2</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>-1.0596302180094219E-2</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>1.6067712903499641E-2</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>1.392761009477732E-2</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>-1.473572737557706E-2</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <v>-8.8028504219044099E-3</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="4">
         <v>7.5678653174138424E-2</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="4">
         <v>-8.8245403527145369E-2</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="4">
         <v>1.440404080408488E-2</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="4">
         <v>-6.2418028288122603E-2</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="4">
         <v>5.8940477008841169E-2</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="4">
         <v>-7.3013707362976521E-2</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="4">
         <v>-0.12715242941317059</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="4">
         <v>-1.6722059340749409E-2</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="4">
         <v>-0.12417229434879939</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="4">
         <v>-8.9735178049399067E-2</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="4">
         <v>-8.9735178049399067E-2</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="4">
         <v>0.128145807767961</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="4">
         <v>3.2171458209979999E-2</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="4">
         <v>-5.5846895590400653E-2</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2073,64 +3020,65 @@
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
         <v>4.6568174563388347E-5</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <v>1.5724726025192479E-3</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="4">
         <v>5.9098059779216783E-11</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="4">
         <v>0.74873201221985553</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="4">
         <v>2.7048048236721911E-6</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="4">
         <v>0.1972503893923023</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="4">
         <v>1.6972704353079851E-7</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="4">
         <v>4.6324525548868678E-8</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="4">
         <v>2.393196751881987E-12</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
         <v>0.29800053343488853</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="4">
         <v>3.6397860970876612E-2</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="4">
         <v>0.28548210494788773</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="4">
         <v>0.30831236933320749</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="4">
         <v>0.30769272961601302</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="4">
         <v>0.97653304265078456</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="4">
         <v>6.584802119208355E-2</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="4">
         <v>0.1199385457059081</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="4">
         <v>0.110538991734245</v>
       </c>
     </row>
@@ -2138,64 +3086,65 @@
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="D28">
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
         <v>1.2938105688675711E-4</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <v>2.4845830958541981E-4</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="4">
         <v>3.255173908200959E-13</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="4">
         <v>7.1452227035110116E-2</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="4">
         <v>2.9691804570575191E-12</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="4">
         <v>0.44574158104569239</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="4">
         <v>9.7390825848454821E-2</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="4">
         <v>5.4613915418983972E-3</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="4">
         <v>2.4903798739555061E-3</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
         <v>0.53732116235445826</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="4">
         <v>3.5213793874280253E-2</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="4">
         <v>0.52225190435974889</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="4">
         <v>3.215011341251417E-2</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="4">
         <v>3.2099809855069328E-2</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="4">
         <v>0.56767360353229956</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="4">
         <v>7.9940312147641635E-9</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="4">
         <v>1.5294654431841082E-11</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="4">
         <v>0.52351544353247403</v>
       </c>
     </row>
@@ -2203,64 +3152,65 @@
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>4.6568174563388347E-5</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>1.2938105688675711E-4</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
         <v>0.81661379261816691</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="4">
         <v>1.8909364244414919E-3</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="4">
         <v>5.0566984590963981E-2</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="4">
         <v>0.30389838148818132</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="4">
         <v>0.5721209585759639</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="4">
         <v>0.58249908607735823</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="4">
         <v>3.0399750722724939E-3</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="4">
         <v>8.9365315830658432E-4</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="4">
         <v>4.3189873082603469E-2</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="4">
         <v>1.008063241389801E-3</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="4">
         <v>9.7552590963082331E-2</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="4">
         <v>9.7407848623911608E-2</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="4">
         <v>6.0266883941850757E-4</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="4">
         <v>0.14201147788876761</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="4">
         <v>3.4065538884172852E-2</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="4">
         <v>0.94678857817506135</v>
       </c>
     </row>
@@ -2268,64 +3218,65 @@
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>1.5724726025192479E-3</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <v>2.4845830958541981E-4</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="F30">
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4">
         <v>1.5184742352403191E-11</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="4">
         <v>2.5270153761205449E-3</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="4">
         <v>0.86547069968820578</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="4">
         <v>0.97635460091679338</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="4">
         <v>5.874902125995618E-3</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="4">
         <v>0.20346985841018531</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="4">
         <v>8.1876945220258346E-2</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="4">
         <v>1.9097725179051391E-8</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="4">
         <v>1.4579908413483E-2</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="4">
         <v>1.8457737479215201E-2</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="4">
         <v>1.549387790861911E-2</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="4">
         <v>0.7701878672442326</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="4">
         <v>0.77040641896887285</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="4">
         <v>0.1041372592434666</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="4">
         <v>0.22097305700749681</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="4">
         <v>0.81809164219173258</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="4">
         <v>0.68861967565947912</v>
       </c>
     </row>
@@ -2333,64 +3284,65 @@
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>5.9098059779216783E-11</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="4">
         <v>3.255173908200959E-13</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
         <v>1.5184742352403191E-11</v>
       </c>
-      <c r="G31">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4">
         <v>4.9798125417526602E-2</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="4">
         <v>7.8687755224016165E-4</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="4">
         <v>9.0380910615732724E-3</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="4">
         <v>0.49562912252610958</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="4">
         <v>0.59989730752236037</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="4">
         <v>0.6276425067232021</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="4">
         <v>8.8817841970012523E-16</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="4">
         <v>3.3077320559551593E-2</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="4">
         <v>0.44855896758646502</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="4">
         <v>3.3973667863876011E-2</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="4">
         <v>6.734853798308893E-2</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="4">
         <v>6.7258082442220868E-2</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="4">
         <v>7.1385455671173492E-3</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="4">
         <v>2.623544624303786E-2</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="4">
         <v>1.6297710362367161E-2</v>
       </c>
-      <c r="V31">
+      <c r="V31" s="4">
         <v>0.67751416115935603</v>
       </c>
     </row>
@@ -2398,64 +3350,65 @@
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>0.74873201221985553</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="4">
         <v>7.1452227035110116E-2</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="4">
         <v>0.81661379261816691</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
         <v>2.5270153761205449E-3</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="4">
         <v>4.9798125417526602E-2</v>
       </c>
-      <c r="H32">
+      <c r="G32" s="4"/>
+      <c r="H32" s="4">
         <v>0.69336799072753852</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="4">
         <v>6.1773796851452012E-3</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="4">
         <v>0.334870920920044</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="4">
         <v>0.60199303618993927</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="4">
         <v>0.48897144518066682</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="4">
         <v>5.2025906658421661E-2</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="4">
         <v>1.389490087318368E-2</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="4">
         <v>7.2780614532410137E-2</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="4">
         <v>1.590537813775228E-2</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="4">
         <v>0.5006334446006433</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="4">
         <v>0.50063347790074242</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="4">
         <v>2.3707586210273579E-2</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="4">
         <v>9.3844418645567584E-2</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="4">
         <v>0.50602123625168227</v>
       </c>
-      <c r="V32">
+      <c r="V32" s="4">
         <v>0.9228371561727764</v>
       </c>
     </row>
@@ -2463,64 +3416,65 @@
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
         <v>2.7048048236721911E-6</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="4">
         <v>2.9691804570575191E-12</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="4">
         <v>1.8909364244414919E-3</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="4">
         <v>0.86547069968820578</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="4">
         <v>7.8687755224016165E-4</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="4">
         <v>0.69336799072753852</v>
       </c>
-      <c r="I33">
+      <c r="H33" s="4"/>
+      <c r="I33" s="4">
         <v>0.67475202326661443</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="4">
         <v>1.325390060364029E-3</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="4">
         <v>1.5878327870755271E-5</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="4">
         <v>5.78931762085233E-7</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="4">
         <v>2.4202861936828409E-14</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="4">
         <v>0.22695176069279199</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="4">
         <v>0.45979563743200019</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="4">
         <v>0.23464437773082819</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="4">
         <v>0.4268800467960765</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="4">
         <v>0.4267643028721142</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="4">
         <v>0.24117354301873381</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="4">
         <v>0.12747029830778309</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="4">
         <v>1.787699543953636E-9</v>
       </c>
-      <c r="V33">
+      <c r="V33" s="4">
         <v>0.79170857727050126</v>
       </c>
     </row>
@@ -2528,64 +3482,65 @@
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <v>0.1972503893923023</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="4">
         <v>0.44574158104569239</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="4">
         <v>5.0566984590963981E-2</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="4">
         <v>0.97635460091679338</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="4">
         <v>9.0380910615732724E-3</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="4">
         <v>6.1773796851452012E-3</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="4">
         <v>0.67475202326661443</v>
       </c>
-      <c r="J34">
+      <c r="I34" s="4"/>
+      <c r="J34" s="4">
         <v>9.7193918379328004E-3</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="4">
         <v>5.9859893690328292E-4</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="4">
         <v>1.179424189099443E-3</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="4">
         <v>0.25303094645297519</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="4">
         <v>3.1145296812695729E-6</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="4">
         <v>2.5136628993002171E-2</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="4">
         <v>4.2269972320152496E-6</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="4">
         <v>6.8622538391682752E-4</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="4">
         <v>6.8751594289295781E-4</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="4">
         <v>1.2414655969905651E-8</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="4">
         <v>0.35272965857318411</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="4">
         <v>6.9762797552677336E-2</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="4">
         <v>0.50292835471340336</v>
       </c>
     </row>
@@ -2593,64 +3548,65 @@
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <v>1.6972704353079851E-7</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="4">
         <v>9.7390825848454821E-2</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="4">
         <v>0.30389838148818132</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="4">
         <v>5.874902125995618E-3</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="4">
         <v>0.49562912252610958</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="4">
         <v>0.334870920920044</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="4">
         <v>1.325390060364029E-3</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="4">
         <v>9.7193918379328004E-3</v>
       </c>
-      <c r="K35">
+      <c r="J35" s="4"/>
+      <c r="K35" s="4">
         <v>4.5097432410656779E-7</v>
       </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
         <v>6.2592821284956912E-5</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="4">
         <v>1.382315684139712E-8</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="4">
         <v>7.0321277423346373E-7</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="4">
         <v>1.338135913186989E-8</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="4">
         <v>0.84975484900235543</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="4">
         <v>0.85030667056865816</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="4">
         <v>3.5169104668941742E-5</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="4">
         <v>0.84948185369671969</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="4">
         <v>0.1760831168296795</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="4">
         <v>4.2688932613786923E-2</v>
       </c>
     </row>
@@ -2658,64 +3614,65 @@
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>4.6324525548868678E-8</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="4">
         <v>5.4613915418983972E-3</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="4">
         <v>0.5721209585759639</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="4">
         <v>0.20346985841018531</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="4">
         <v>0.59989730752236037</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="4">
         <v>0.60199303618993927</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="4">
         <v>1.5878327870755271E-5</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="4">
         <v>5.9859893690328292E-4</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="4">
         <v>4.5097432410656779E-7</v>
       </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
+      <c r="K36" s="4"/>
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
         <v>1.8982675960987899E-4</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="4">
         <v>7.2867335410009559E-7</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="4">
         <v>1.8010159952908111E-4</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="4">
         <v>8.6344171457142238E-7</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="4">
         <v>0.1191217923806844</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="4">
         <v>0.1191217923806844</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="4">
         <v>1.4996461267013931E-5</v>
       </c>
-      <c r="T36">
+      <c r="T36" s="4">
         <v>0.98317360079058647</v>
       </c>
-      <c r="U36">
+      <c r="U36" s="4">
         <v>0.1689946024823423</v>
       </c>
-      <c r="V36">
+      <c r="V36" s="4">
         <v>0.91528388121352955</v>
       </c>
     </row>
@@ -2723,64 +3680,65 @@
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <v>2.393196751881987E-12</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="4">
         <v>2.4903798739555061E-3</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="4">
         <v>0.58249908607735823</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="4">
         <v>8.1876945220258346E-2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="4">
         <v>0.6276425067232021</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="4">
         <v>0.48897144518066682</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="4">
         <v>5.78931762085233E-7</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="4">
         <v>1.179424189099443E-3</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="M37">
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4">
         <v>2.1059308359383522E-6</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="4">
         <v>6.4936039212426522E-8</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="4">
         <v>2.7098210676701481E-5</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="4">
         <v>7.3799968136611938E-8</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="4">
         <v>0.20816558859540951</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="4">
         <v>0.20816558859540951</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="4">
         <v>1.4823518147633051E-5</v>
       </c>
-      <c r="T37">
+      <c r="T37" s="4">
         <v>0.70816577233760913</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="4">
         <v>0.73844206657136002</v>
       </c>
-      <c r="V37">
+      <c r="V37" s="4">
         <v>0.1229000515273513</v>
       </c>
     </row>
@@ -2788,64 +3746,65 @@
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
         <v>3.0399750722724939E-3</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="4">
         <v>1.9097725179051391E-8</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="4">
         <v>8.8817841970012523E-16</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="4">
         <v>5.2025906658421661E-2</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="4">
         <v>2.4202861936828409E-14</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="4">
         <v>0.25303094645297519</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="4">
         <v>6.2592821284956912E-5</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="4">
         <v>1.8982675960987899E-4</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="4">
         <v>2.1059308359383522E-6</v>
       </c>
-      <c r="N38">
+      <c r="M38" s="4"/>
+      <c r="N38" s="4">
         <v>1.15069229378415E-2</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="4">
         <v>9.99429556221898E-4</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="4">
         <v>1.089741133045807E-2</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="4">
         <v>9.8541253010980157E-2</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="4">
         <v>9.840590680817618E-2</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="4">
         <v>0.34934857978495598</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="4">
         <v>2.795416367273873E-7</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="4">
         <v>8.5709217501062085E-14</v>
       </c>
-      <c r="V38">
+      <c r="V38" s="4">
         <v>0.30542350940214602</v>
       </c>
     </row>
@@ -2853,64 +3812,65 @@
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>0.29800053343488853</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="4">
         <v>0.53732116235445826</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="4">
         <v>8.9365315830658432E-4</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="4">
         <v>1.4579908413483E-2</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="4">
         <v>3.3077320559551593E-2</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="4">
         <v>1.389490087318368E-2</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="4">
         <v>0.22695176069279199</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="4">
         <v>3.1145296812695729E-6</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="4">
         <v>1.382315684139712E-8</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="4">
         <v>7.2867335410009559E-7</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="4">
         <v>6.4936039212426522E-8</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="4">
         <v>1.15069229378415E-2</v>
       </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
+      <c r="N39" s="4"/>
+      <c r="O39" s="4">
+        <v>0</v>
+      </c>
+      <c r="P39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="4">
         <v>1.0567589000372021E-2</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="4">
         <v>1.0589536320246619E-2</v>
       </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
+      <c r="S39" s="4">
+        <v>0</v>
+      </c>
+      <c r="T39" s="4">
         <v>0.86739151382489088</v>
       </c>
-      <c r="U39">
+      <c r="U39" s="4">
         <v>5.151818129720942E-2</v>
       </c>
-      <c r="V39">
+      <c r="V39" s="4">
         <v>3.7012783159179552E-2</v>
       </c>
     </row>
@@ -2918,64 +3878,65 @@
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
         <v>3.6397860970876612E-2</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="4">
         <v>3.5213793874280253E-2</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="4">
         <v>4.3189873082603469E-2</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="4">
         <v>1.8457737479215201E-2</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="4">
         <v>0.44855896758646502</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="4">
         <v>7.2780614532410137E-2</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="4">
         <v>0.45979563743200019</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="4">
         <v>2.5136628993002171E-2</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="4">
         <v>7.0321277423346373E-7</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="4">
         <v>1.8010159952908111E-4</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="4">
         <v>2.7098210676701481E-5</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="4">
         <v>9.99429556221898E-4</v>
       </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>0</v>
+      </c>
+      <c r="R40" s="4">
+        <v>0</v>
+      </c>
+      <c r="S40" s="4">
         <v>5.4648374714361125E-10</v>
       </c>
-      <c r="T40">
+      <c r="T40" s="4">
         <v>8.9097289615357234E-2</v>
       </c>
-      <c r="U40">
+      <c r="U40" s="4">
         <v>0.120060261890508</v>
       </c>
-      <c r="V40">
+      <c r="V40" s="4">
         <v>0.19484935352930099</v>
       </c>
     </row>
@@ -2983,64 +3944,65 @@
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>0.28548210494788773</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="4">
         <v>0.52225190435974889</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="4">
         <v>1.008063241389801E-3</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="4">
         <v>1.549387790861911E-2</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="4">
         <v>3.3973667863876011E-2</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="4">
         <v>1.590537813775228E-2</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="4">
         <v>0.23464437773082819</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="4">
         <v>4.2269972320152496E-6</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="4">
         <v>1.338135913186989E-8</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="4">
         <v>8.6344171457142238E-7</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="4">
         <v>7.3799968136611938E-8</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="4">
         <v>1.089741133045807E-2</v>
       </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
+      <c r="N41" s="4">
+        <v>0</v>
+      </c>
+      <c r="O41" s="4">
+        <v>0</v>
+      </c>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4">
         <v>2.5536564616224441E-2</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="4">
         <v>2.5583664611717349E-2</v>
       </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
+      <c r="S41" s="4">
+        <v>0</v>
+      </c>
+      <c r="T41" s="4">
         <v>0.80770325479877614</v>
       </c>
-      <c r="U41">
+      <c r="U41" s="4">
         <v>5.1803057332674651E-2</v>
       </c>
-      <c r="V41">
+      <c r="V41" s="4">
         <v>3.7239775487832187E-2</v>
       </c>
     </row>
@@ -3048,64 +4010,65 @@
       <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <v>0.30831236933320749</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="4">
         <v>3.215011341251417E-2</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="4">
         <v>9.7552590963082331E-2</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="4">
         <v>0.7701878672442326</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="4">
         <v>6.734853798308893E-2</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="4">
         <v>0.5006334446006433</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="4">
         <v>0.4268800467960765</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="4">
         <v>6.8622538391682752E-4</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="4">
         <v>0.84975484900235543</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="4">
         <v>0.1191217923806844</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="4">
         <v>0.20816558859540951</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="4">
         <v>9.8541253010980157E-2</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="4">
         <v>1.0567589000372021E-2</v>
       </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>2.5536564616224441E-2</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="O42" s="4">
+        <v>0</v>
+      </c>
+      <c r="P42" s="4">
+        <v>2.5536564616224399E-2</v>
+      </c>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4">
+        <v>0</v>
+      </c>
+      <c r="S42" s="4">
+        <v>0</v>
+      </c>
+      <c r="T42" s="4">
         <v>1.0499954647067431E-3</v>
       </c>
-      <c r="U42">
+      <c r="U42" s="4">
         <v>0.87606509519484943</v>
       </c>
-      <c r="V42">
+      <c r="V42" s="4">
         <v>0.50971126645278453</v>
       </c>
     </row>
@@ -3113,64 +4076,65 @@
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <v>0.30769272961601302</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="4">
         <v>3.2099809855069328E-2</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="4">
         <v>9.7407848623911608E-2</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="4">
         <v>0.77040641896887285</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="4">
         <v>6.7258082442220868E-2</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="4">
         <v>0.50063347790074242</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="4">
         <v>0.4267643028721142</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="4">
         <v>6.8751594289295781E-4</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="4">
         <v>0.85030667056865816</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="4">
         <v>0.1191217923806844</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="4">
         <v>0.20816558859540951</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="4">
         <v>9.840590680817618E-2</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="4">
         <v>1.0589536320246619E-2</v>
       </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
+      <c r="O43" s="4">
+        <v>0</v>
+      </c>
+      <c r="P43" s="4">
         <v>2.5583664611717349E-2</v>
       </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
+      <c r="Q43" s="4">
+        <v>0</v>
+      </c>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4">
+        <v>0</v>
+      </c>
+      <c r="T43" s="4">
         <v>1.04999636901093E-3</v>
       </c>
-      <c r="U43">
+      <c r="U43" s="4">
         <v>0.87588438027684212</v>
       </c>
-      <c r="V43">
+      <c r="V43" s="4">
         <v>0.50971129712895236</v>
       </c>
     </row>
@@ -3178,64 +4142,65 @@
       <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="4">
         <v>0.97653304265078456</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="4">
         <v>0.56767360353229956</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="4">
         <v>6.0266883941850757E-4</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="4">
         <v>0.1041372592434666</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="4">
         <v>7.1385455671173492E-3</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="4">
         <v>2.3707586210273579E-2</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="4">
         <v>0.24117354301873381</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="4">
         <v>1.2414655969905651E-8</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="4">
         <v>3.5169104668941742E-5</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="4">
         <v>1.4996461267013931E-5</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="4">
         <v>1.4823518147633051E-5</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="4">
         <v>0.34934857978495598</v>
       </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
+      <c r="N44" s="4">
+        <v>0</v>
+      </c>
+      <c r="O44" s="4">
         <v>5.4648374714361125E-10</v>
       </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="T44">
+      <c r="P44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>0</v>
+      </c>
+      <c r="R44" s="4">
+        <v>0</v>
+      </c>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4">
         <v>0.14600928530801219</v>
       </c>
-      <c r="U44">
+      <c r="U44" s="4">
         <v>9.0590368050996073E-2</v>
       </c>
-      <c r="V44">
+      <c r="V44" s="4">
         <v>9.5589031800059843E-2</v>
       </c>
     </row>
@@ -3243,64 +4208,65 @@
       <c r="A45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
         <v>6.584802119208355E-2</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="4">
         <v>7.9940312147641635E-9</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="4">
         <v>0.14201147788876761</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="4">
         <v>0.22097305700749681</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="4">
         <v>2.623544624303786E-2</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="4">
         <v>9.3844418645567584E-2</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="4">
         <v>0.12747029830778309</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="4">
         <v>0.35272965857318411</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="4">
         <v>0.84948185369671969</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="4">
         <v>0.98317360079058647</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="4">
         <v>0.70816577233760913</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="4">
         <v>2.795416367273873E-7</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="4">
         <v>0.86739151382489088</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="4">
         <v>8.9097289615357234E-2</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="4">
         <v>0.80770325479877614</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="4">
         <v>1.0499954647067431E-3</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="4">
         <v>1.04999636901093E-3</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="4">
         <v>0.14600928530801219</v>
       </c>
-      <c r="U45">
+      <c r="T45" s="4"/>
+      <c r="U45" s="4">
         <v>3.0903577067360018E-2</v>
       </c>
-      <c r="V45">
+      <c r="V45" s="4">
         <v>0.90114062988461674</v>
       </c>
     </row>
@@ -3308,64 +4274,65 @@
       <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <v>0.1199385457059081</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="4">
         <v>1.5294654431841082E-11</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="4">
         <v>3.4065538884172852E-2</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="4">
         <v>0.81809164219173258</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="4">
         <v>1.6297710362367161E-2</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="4">
         <v>0.50602123625168227</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="4">
         <v>1.787699543953636E-9</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="4">
         <v>6.9762797552677336E-2</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="4">
         <v>0.1760831168296795</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="4">
         <v>0.1689946024823423</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="4">
         <v>0.73844206657136002</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="4">
         <v>8.5709217501062085E-14</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="4">
         <v>5.151818129720942E-2</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="4">
         <v>0.120060261890508</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="4">
         <v>5.1803057332674651E-2</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="4">
         <v>0.87606509519484943</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="4">
         <v>0.87588438027684212</v>
       </c>
-      <c r="S46">
+      <c r="S46" s="4">
         <v>9.0590368050996073E-2</v>
       </c>
-      <c r="T46">
+      <c r="T46" s="4">
         <v>3.0903577067360018E-2</v>
       </c>
-      <c r="V46">
+      <c r="U46" s="4"/>
+      <c r="V46" s="4">
         <v>0.42536852396805402</v>
       </c>
     </row>
@@ -3373,65 +4340,2392 @@
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="4">
         <v>0.110538991734245</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="4">
         <v>0.52351544353247403</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="4">
         <v>0.94678857817506135</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="4">
         <v>0.68861967565947912</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="4">
         <v>0.67751416115935603</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="4">
         <v>0.9228371561727764</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="4">
         <v>0.79170857727050126</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="4">
         <v>0.50292835471340336</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="4">
         <v>4.2688932613786923E-2</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="4">
         <v>0.91528388121352955</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="4">
         <v>0.1229000515273513</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="4">
         <v>0.30542350940214602</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="4">
         <v>3.7012783159179552E-2</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="4">
         <v>0.19484935352930099</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="4">
         <v>3.7239775487832187E-2</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="4">
         <v>0.50971126645278453</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="4">
         <v>0.50971129712895236</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="4">
         <v>9.5589031800059843E-2</v>
       </c>
-      <c r="T47">
+      <c r="T47" s="4">
         <v>0.90114062988461674</v>
       </c>
-      <c r="U47">
+      <c r="U47" s="4">
         <v>0.42536852396805402</v>
+      </c>
+      <c r="V47" s="4"/>
+    </row>
+    <row r="49" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
+        <v>238</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" t="s">
+        <v>239</v>
+      </c>
+      <c r="C53">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" t="s">
+        <v>240</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C55">
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
+        <v>241</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57">
+        <v>-0.14299999999999999</v>
+      </c>
+      <c r="C57">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="C62">
+        <v>0.29799999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" t="s">
+        <v>246</v>
+      </c>
+      <c r="C63">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64">
+        <v>-0.01</v>
+      </c>
+      <c r="C64">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+      <c r="C65">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+      <c r="C66">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C67">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68">
+        <v>0.12</v>
+      </c>
+      <c r="C68">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C69">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70">
+        <v>-6.8000000000000005E-2</v>
+      </c>
+      <c r="C70">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" t="s">
+        <v>247</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" t="s">
+        <v>239</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C74">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" t="s">
+        <v>249</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76">
+        <v>-0.111</v>
+      </c>
+      <c r="C76">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="C77">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" t="s">
+        <v>250</v>
+      </c>
+      <c r="C78">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" t="s">
+        <v>251</v>
+      </c>
+      <c r="C79">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" t="s">
+        <v>252</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="C81">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" t="s">
+        <v>253</v>
+      </c>
+      <c r="C82">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="C83">
+        <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" t="s">
+        <v>254</v>
+      </c>
+      <c r="C84">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>59</v>
+      </c>
+      <c r="B86">
+        <v>0.151</v>
+      </c>
+      <c r="C86">
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" t="s">
+        <v>255</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>61</v>
+      </c>
+      <c r="B88" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>62</v>
+      </c>
+      <c r="B89">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="C89">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90" t="s">
+        <v>257</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>64</v>
+      </c>
+      <c r="B91" t="s">
+        <v>258</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92">
+        <v>6.2E-2</v>
+      </c>
+      <c r="C92">
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>66</v>
+      </c>
+      <c r="B93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C93">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>67</v>
+      </c>
+      <c r="B94">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="C94">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>68</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0.30399999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>69</v>
+      </c>
+      <c r="B96">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="C96">
+        <v>0.57199999999999995</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C97">
+        <v>0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>71</v>
+      </c>
+      <c r="B98" t="s">
+        <v>260</v>
+      </c>
+      <c r="C98">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>72</v>
+      </c>
+      <c r="B99" t="s">
+        <v>261</v>
+      </c>
+      <c r="C99">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>73</v>
+      </c>
+      <c r="B100" t="s">
+        <v>262</v>
+      </c>
+      <c r="C100">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>74</v>
+      </c>
+      <c r="B101" t="s">
+        <v>263</v>
+      </c>
+      <c r="C101">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>75</v>
+      </c>
+      <c r="B102">
+        <v>0.158</v>
+      </c>
+      <c r="C102">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>76</v>
+      </c>
+      <c r="B103">
+        <v>0.158</v>
+      </c>
+      <c r="C103">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>77</v>
+      </c>
+      <c r="B104" t="s">
+        <v>264</v>
+      </c>
+      <c r="C104">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="C105">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>79</v>
+      </c>
+      <c r="B106" t="s">
+        <v>265</v>
+      </c>
+      <c r="C106">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>80</v>
+      </c>
+      <c r="B107">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C107">
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>81</v>
+      </c>
+      <c r="B108" t="s">
+        <v>266</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>82</v>
+      </c>
+      <c r="B109" t="s">
+        <v>267</v>
+      </c>
+      <c r="C109">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="C110">
+        <v>0.86499999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>84</v>
+      </c>
+      <c r="B111">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="C111">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112" t="s">
+        <v>268</v>
+      </c>
+      <c r="C112">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C113">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>87</v>
+      </c>
+      <c r="B114">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="C114">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>88</v>
+      </c>
+      <c r="B115" t="s">
+        <v>269</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>89</v>
+      </c>
+      <c r="B116" t="s">
+        <v>270</v>
+      </c>
+      <c r="C116">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>90</v>
+      </c>
+      <c r="B117" t="s">
+        <v>271</v>
+      </c>
+      <c r="C117">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>91</v>
+      </c>
+      <c r="B118" t="s">
+        <v>272</v>
+      </c>
+      <c r="C118">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>92</v>
+      </c>
+      <c r="B119">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="C119">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>93</v>
+      </c>
+      <c r="B120">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="C120">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>94</v>
+      </c>
+      <c r="B121">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="C121">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>95</v>
+      </c>
+      <c r="B122">
+        <v>0.113</v>
+      </c>
+      <c r="C122">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>96</v>
+      </c>
+      <c r="B123">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="C123">
+        <v>0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>97</v>
+      </c>
+      <c r="B124">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C124">
+        <v>0.68899999999999995</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>98</v>
+      </c>
+      <c r="B125" t="s">
+        <v>273</v>
+      </c>
+      <c r="C125">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>99</v>
+      </c>
+      <c r="B126" t="s">
+        <v>274</v>
+      </c>
+      <c r="C126">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>100</v>
+      </c>
+      <c r="B127" t="s">
+        <v>275</v>
+      </c>
+      <c r="C127">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>101</v>
+      </c>
+      <c r="B128">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C128">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>102</v>
+      </c>
+      <c r="B129">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="C129">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>103</v>
+      </c>
+      <c r="B130">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C130">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>104</v>
+      </c>
+      <c r="B131" t="s">
+        <v>276</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>105</v>
+      </c>
+      <c r="B132" t="s">
+        <v>277</v>
+      </c>
+      <c r="C132">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>106</v>
+      </c>
+      <c r="B133">
+        <v>0.03</v>
+      </c>
+      <c r="C133">
+        <v>0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>107</v>
+      </c>
+      <c r="B134" t="s">
+        <v>278</v>
+      </c>
+      <c r="C134">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>108</v>
+      </c>
+      <c r="B135">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="C135">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>109</v>
+      </c>
+      <c r="B136">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="C136">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>110</v>
+      </c>
+      <c r="B137" t="s">
+        <v>279</v>
+      </c>
+      <c r="C137">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>111</v>
+      </c>
+      <c r="B138" t="s">
+        <v>280</v>
+      </c>
+      <c r="C138">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>112</v>
+      </c>
+      <c r="B139" t="s">
+        <v>281</v>
+      </c>
+      <c r="C139">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>113</v>
+      </c>
+      <c r="B140">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="C140">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>114</v>
+      </c>
+      <c r="B141">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="C141">
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>115</v>
+      </c>
+      <c r="B142" t="s">
+        <v>282</v>
+      </c>
+      <c r="C142">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>116</v>
+      </c>
+      <c r="B143">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C143">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>117</v>
+      </c>
+      <c r="B144">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C144">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>118</v>
+      </c>
+      <c r="B145">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C145">
+        <v>0.48899999999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>119</v>
+      </c>
+      <c r="B146">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C146">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>120</v>
+      </c>
+      <c r="B147" t="s">
+        <v>283</v>
+      </c>
+      <c r="C147">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>121</v>
+      </c>
+      <c r="B148">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="C148">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>122</v>
+      </c>
+      <c r="B149" t="s">
+        <v>284</v>
+      </c>
+      <c r="C149">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>123</v>
+      </c>
+      <c r="B150">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C150">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>124</v>
+      </c>
+      <c r="B151">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C151">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>125</v>
+      </c>
+      <c r="B152" t="s">
+        <v>265</v>
+      </c>
+      <c r="C152">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>126</v>
+      </c>
+      <c r="B153">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C153">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>127</v>
+      </c>
+      <c r="B154">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="C154">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>128</v>
+      </c>
+      <c r="B155">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="C155">
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>129</v>
+      </c>
+      <c r="B156">
+        <v>-0.11</v>
+      </c>
+      <c r="C156">
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>130</v>
+      </c>
+      <c r="B157" t="s">
+        <v>285</v>
+      </c>
+      <c r="C157">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>131</v>
+      </c>
+      <c r="B158" t="s">
+        <v>286</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>132</v>
+      </c>
+      <c r="B159" t="s">
+        <v>287</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>133</v>
+      </c>
+      <c r="B160" t="s">
+        <v>243</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>134</v>
+      </c>
+      <c r="B161">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="C161">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>135</v>
+      </c>
+      <c r="B162">
+        <v>0.01</v>
+      </c>
+      <c r="C162">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>136</v>
+      </c>
+      <c r="B163">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="C163">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>137</v>
+      </c>
+      <c r="B164">
+        <v>1E-3</v>
+      </c>
+      <c r="C164">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>138</v>
+      </c>
+      <c r="B165">
+        <v>1E-3</v>
+      </c>
+      <c r="C165">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>139</v>
+      </c>
+      <c r="B166">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C166">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>140</v>
+      </c>
+      <c r="B167">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C167">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>141</v>
+      </c>
+      <c r="B168" t="s">
+        <v>288</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>142</v>
+      </c>
+      <c r="B169">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C169">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>143</v>
+      </c>
+      <c r="B170" t="s">
+        <v>289</v>
+      </c>
+      <c r="C170">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>144</v>
+      </c>
+      <c r="B171" t="s">
+        <v>290</v>
+      </c>
+      <c r="C171">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>145</v>
+      </c>
+      <c r="B172" t="s">
+        <v>291</v>
+      </c>
+      <c r="C172">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>146</v>
+      </c>
+      <c r="B173">
+        <v>-0.16</v>
+      </c>
+      <c r="C173">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>147</v>
+      </c>
+      <c r="B174" t="s">
+        <v>292</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>148</v>
+      </c>
+      <c r="B175" t="s">
+        <v>290</v>
+      </c>
+      <c r="C175">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>149</v>
+      </c>
+      <c r="B176" t="s">
+        <v>293</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>150</v>
+      </c>
+      <c r="B177" t="s">
+        <v>294</v>
+      </c>
+      <c r="C177">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>151</v>
+      </c>
+      <c r="B178" t="s">
+        <v>294</v>
+      </c>
+      <c r="C178">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>152</v>
+      </c>
+      <c r="B179" t="s">
+        <v>295</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>153</v>
+      </c>
+      <c r="B180">
+        <v>6.2E-2</v>
+      </c>
+      <c r="C180">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>154</v>
+      </c>
+      <c r="B181" t="s">
+        <v>253</v>
+      </c>
+      <c r="C181">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>155</v>
+      </c>
+      <c r="B182">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+      <c r="C182">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>156</v>
+      </c>
+      <c r="B183" t="s">
+        <v>296</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>157</v>
+      </c>
+      <c r="B184" t="s">
+        <v>297</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>158</v>
+      </c>
+      <c r="B185" t="s">
+        <v>298</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>159</v>
+      </c>
+      <c r="B186" t="s">
+        <v>299</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>160</v>
+      </c>
+      <c r="B187" t="s">
+        <v>260</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>161</v>
+      </c>
+      <c r="B188" t="s">
+        <v>299</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>162</v>
+      </c>
+      <c r="B189">
+        <v>-0.1</v>
+      </c>
+      <c r="C189">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>163</v>
+      </c>
+      <c r="B190">
+        <v>-0.1</v>
+      </c>
+      <c r="C190">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>164</v>
+      </c>
+      <c r="B191" t="s">
+        <v>300</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>165</v>
+      </c>
+      <c r="B192">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C192">
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>166</v>
+      </c>
+      <c r="B193">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C193">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>167</v>
+      </c>
+      <c r="B194" t="s">
+        <v>301</v>
+      </c>
+      <c r="C194">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>226</v>
+      </c>
+      <c r="B195" t="s">
+        <v>302</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>227</v>
+      </c>
+      <c r="B196" t="s">
+        <v>303</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>228</v>
+      </c>
+      <c r="B197" t="s">
+        <v>304</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>229</v>
+      </c>
+      <c r="B198" t="s">
+        <v>305</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>230</v>
+      </c>
+      <c r="B199" t="s">
+        <v>306</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>231</v>
+      </c>
+      <c r="B200">
+        <v>0.109</v>
+      </c>
+      <c r="C200">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>232</v>
+      </c>
+      <c r="B201">
+        <v>0.109</v>
+      </c>
+      <c r="C201">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>233</v>
+      </c>
+      <c r="B202" t="s">
+        <v>307</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>234</v>
+      </c>
+      <c r="B203">
+        <v>-0.08</v>
+      </c>
+      <c r="C203">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>235</v>
+      </c>
+      <c r="B204">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="C204">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>236</v>
+      </c>
+      <c r="B205">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="C205">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>168</v>
+      </c>
+      <c r="B206" t="s">
+        <v>308</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>169</v>
+      </c>
+      <c r="B207" t="s">
+        <v>309</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>170</v>
+      </c>
+      <c r="B208" t="s">
+        <v>310</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>171</v>
+      </c>
+      <c r="B209" t="s">
+        <v>311</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>172</v>
+      </c>
+      <c r="B210">
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="C210">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>173</v>
+      </c>
+      <c r="B211">
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="C211">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>174</v>
+      </c>
+      <c r="B212" t="s">
+        <v>312</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>175</v>
+      </c>
+      <c r="B213">
+        <v>0.1</v>
+      </c>
+      <c r="C213">
+        <v>0.70799999999999996</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>176</v>
+      </c>
+      <c r="B214">
+        <v>-9.4E-2</v>
+      </c>
+      <c r="C214">
+        <v>0.73799999999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>177</v>
+      </c>
+      <c r="B215">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="C215">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>178</v>
+      </c>
+      <c r="B216" t="s">
+        <v>313</v>
+      </c>
+      <c r="C216">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>179</v>
+      </c>
+      <c r="B217" t="s">
+        <v>314</v>
+      </c>
+      <c r="C217">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>180</v>
+      </c>
+      <c r="B218" t="s">
+        <v>315</v>
+      </c>
+      <c r="C218">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>181</v>
+      </c>
+      <c r="B219">
+        <v>-0.112</v>
+      </c>
+      <c r="C219">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>182</v>
+      </c>
+      <c r="B220">
+        <v>-0.112</v>
+      </c>
+      <c r="C220">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>183</v>
+      </c>
+      <c r="B221">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C221">
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>184</v>
+      </c>
+      <c r="B222" t="s">
+        <v>316</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>185</v>
+      </c>
+      <c r="B223" t="s">
+        <v>317</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>186</v>
+      </c>
+      <c r="B224">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="C224">
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>187</v>
+      </c>
+      <c r="B225" t="s">
+        <v>318</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>188</v>
+      </c>
+      <c r="B226" t="s">
+        <v>319</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>189</v>
+      </c>
+      <c r="B227" t="s">
+        <v>320</v>
+      </c>
+      <c r="C227">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>190</v>
+      </c>
+      <c r="B228" t="s">
+        <v>320</v>
+      </c>
+      <c r="C228">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>191</v>
+      </c>
+      <c r="B229" t="s">
+        <v>321</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>192</v>
+      </c>
+      <c r="B230">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="C230">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>193</v>
+      </c>
+      <c r="B231" t="s">
+        <v>322</v>
+      </c>
+      <c r="C231">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>194</v>
+      </c>
+      <c r="B232" t="s">
+        <v>323</v>
+      </c>
+      <c r="C232">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>195</v>
+      </c>
+      <c r="B233" t="s">
+        <v>324</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>196</v>
+      </c>
+      <c r="B234" t="s">
+        <v>325</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>197</v>
+      </c>
+      <c r="B235" t="s">
+        <v>325</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>198</v>
+      </c>
+      <c r="B236" t="s">
+        <v>326</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>199</v>
+      </c>
+      <c r="B237">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C237">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>200</v>
+      </c>
+      <c r="B238">
+        <v>0.108</v>
+      </c>
+      <c r="C238">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>201</v>
+      </c>
+      <c r="B239">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="C239">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>202</v>
+      </c>
+      <c r="B240" t="s">
+        <v>327</v>
+      </c>
+      <c r="C240">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>203</v>
+      </c>
+      <c r="B241" t="s">
+        <v>327</v>
+      </c>
+      <c r="C241">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>204</v>
+      </c>
+      <c r="B242" t="s">
+        <v>328</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>205</v>
+      </c>
+      <c r="B243">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="C243">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>206</v>
+      </c>
+      <c r="B244">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C244">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>207</v>
+      </c>
+      <c r="B245" t="s">
+        <v>329</v>
+      </c>
+      <c r="C245">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>208</v>
+      </c>
+      <c r="B246" t="s">
+        <v>319</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>209</v>
+      </c>
+      <c r="B247" t="s">
+        <v>330</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>210</v>
+      </c>
+      <c r="B248" t="s">
+        <v>331</v>
+      </c>
+      <c r="C248">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>211</v>
+      </c>
+      <c r="B249">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="C249">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>212</v>
+      </c>
+      <c r="B250">
+        <v>-0.09</v>
+      </c>
+      <c r="C250">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>213</v>
+      </c>
+      <c r="B251" t="s">
+        <v>330</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>214</v>
+      </c>
+      <c r="B252" t="s">
+        <v>331</v>
+      </c>
+      <c r="C252">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>215</v>
+      </c>
+      <c r="B253">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="C253">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>216</v>
+      </c>
+      <c r="B254">
+        <v>-0.09</v>
+      </c>
+      <c r="C254">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>217</v>
+      </c>
+      <c r="B255">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="C255">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>218</v>
+      </c>
+      <c r="B256">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="C256">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>219</v>
+      </c>
+      <c r="B257">
+        <v>0.128</v>
+      </c>
+      <c r="C257">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>220</v>
+      </c>
+      <c r="B258" t="s">
+        <v>332</v>
+      </c>
+      <c r="C258">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>221</v>
+      </c>
+      <c r="B259">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C259">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>222</v>
+      </c>
+      <c r="B260">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="C260">
+        <v>0.42499999999999999</v>
       </c>
     </row>
   </sheetData>
